--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ENTRADAS  OBRADOR  ENERO 2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ENTRADAS  OBRADOR  ENERO 2023.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
   </si>
@@ -99,12 +99,6 @@
     <t>Transferencia B</t>
   </si>
   <si>
-    <t xml:space="preserve">Transferencia B </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transferencia S </t>
-  </si>
-  <si>
     <t>RES</t>
   </si>
   <si>
@@ -170,7 +164,7 @@
     <numFmt numFmtId="166" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="47" x14ac:knownFonts="1">
+  <fonts count="48" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,6 +537,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -1361,7 +1363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="384">
+  <cellXfs count="386">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2399,6 +2401,12 @@
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="47" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2692,7 +2700,7 @@
   <dimension ref="A1:X295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2722,7 +2730,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="371" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" s="371"/>
       <c r="C1" s="371"/>
@@ -2844,13 +2852,13 @@
     </row>
     <row r="4" spans="1:24" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="30" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="33">
         <v>63</v>
@@ -2882,12 +2890,8 @@
         <f t="shared" ref="N4:N117" si="1">K4*I4</f>
         <v>1177605</v>
       </c>
-      <c r="O4" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="P4" s="44">
-        <v>44916</v>
-      </c>
+      <c r="O4" s="43"/>
+      <c r="P4" s="44"/>
       <c r="Q4" s="45"/>
       <c r="R4" s="46"/>
       <c r="S4" s="47"/>
@@ -2900,14 +2904,14 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="53" t="s">
-        <v>35</v>
+      <c r="A5" s="384" t="s">
+        <v>33</v>
       </c>
       <c r="B5" s="54" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" s="55" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D5" s="56">
         <v>62</v>
@@ -2922,11 +2926,13 @@
       <c r="G5" s="58">
         <v>44930</v>
       </c>
-      <c r="H5" s="59"/>
+      <c r="H5" s="59">
+        <v>19518</v>
+      </c>
       <c r="I5" s="60">
         <v>22586.2</v>
       </c>
-      <c r="J5" s="39">
+      <c r="J5" s="385">
         <f>I5-F5</f>
         <v>176.20000000000073</v>
       </c>
@@ -2940,10 +2946,10 @@
         <v>1309999.6000000001</v>
       </c>
       <c r="O5" s="62" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P5" s="63">
-        <v>44917</v>
+        <v>44938</v>
       </c>
       <c r="Q5" s="64"/>
       <c r="R5" s="65"/>
@@ -2958,13 +2964,13 @@
     </row>
     <row r="6" spans="1:24" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="368" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B6" s="54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D6" s="56">
         <v>60</v>
@@ -2996,12 +3002,8 @@
         <f>K6*I6</f>
         <v>1122615</v>
       </c>
-      <c r="O6" s="62" t="s">
-        <v>21</v>
-      </c>
-      <c r="P6" s="63">
-        <v>44921</v>
-      </c>
+      <c r="O6" s="62"/>
+      <c r="P6" s="63"/>
       <c r="Q6" s="64"/>
       <c r="R6" s="65"/>
       <c r="S6" s="47"/>
@@ -3015,10 +3017,10 @@
     </row>
     <row r="7" spans="1:24" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="53" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="67"/>
       <c r="D7" s="56"/>
@@ -3049,12 +3051,8 @@
         <f t="shared" si="1"/>
         <v>1022805</v>
       </c>
-      <c r="O7" s="68" t="s">
-        <v>21</v>
-      </c>
-      <c r="P7" s="63">
-        <v>44921</v>
-      </c>
+      <c r="O7" s="68"/>
+      <c r="P7" s="63"/>
       <c r="Q7" s="64"/>
       <c r="R7" s="65"/>
       <c r="S7" s="47"/>
@@ -3068,10 +3066,10 @@
     </row>
     <row r="8" spans="1:24" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="53" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" s="67"/>
       <c r="D8" s="56"/>
@@ -3102,12 +3100,8 @@
         <f t="shared" si="1"/>
         <v>1126080</v>
       </c>
-      <c r="O8" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" s="70">
-        <v>44923</v>
-      </c>
+      <c r="O8" s="69"/>
+      <c r="P8" s="70"/>
       <c r="Q8" s="64"/>
       <c r="R8" s="65"/>
       <c r="S8" s="47"/>
@@ -3121,10 +3115,10 @@
     </row>
     <row r="9" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="71" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C9" s="55"/>
       <c r="D9" s="56"/>
@@ -3155,12 +3149,8 @@
         <f t="shared" si="1"/>
         <v>1036557</v>
       </c>
-      <c r="O9" s="72" t="s">
-        <v>22</v>
-      </c>
-      <c r="P9" s="70">
-        <v>44924</v>
-      </c>
+      <c r="O9" s="72"/>
+      <c r="P9" s="70"/>
       <c r="Q9" s="64"/>
       <c r="R9" s="65"/>
       <c r="S9" s="47"/>
@@ -3196,12 +3186,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O10" s="72" t="s">
-        <v>24</v>
-      </c>
-      <c r="P10" s="70">
-        <v>44924</v>
-      </c>
+      <c r="O10" s="72"/>
+      <c r="P10" s="70"/>
       <c r="Q10" s="64"/>
       <c r="R10" s="65"/>
       <c r="S10" s="47"/>
@@ -3235,12 +3221,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O11" s="72" t="s">
-        <v>21</v>
-      </c>
-      <c r="P11" s="74">
-        <v>44925</v>
-      </c>
+      <c r="O11" s="72"/>
+      <c r="P11" s="74"/>
       <c r="Q11" s="64"/>
       <c r="R11" s="65"/>
       <c r="S11" s="47"/>
@@ -4861,7 +4843,7 @@
     <row r="57" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A57" s="152"/>
       <c r="B57" s="153" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C57" s="154"/>
       <c r="D57" s="116"/>
@@ -4897,7 +4879,7 @@
     <row r="58" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A58" s="152"/>
       <c r="B58" s="153" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C58" s="159"/>
       <c r="D58" s="160"/>
@@ -4929,7 +4911,7 @@
     <row r="59" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A59" s="110"/>
       <c r="B59" s="153" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C59" s="161"/>
       <c r="D59" s="160"/>
@@ -4961,7 +4943,7 @@
     <row r="60" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="110"/>
       <c r="B60" s="153" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C60" s="163"/>
       <c r="D60" s="160"/>
@@ -4993,7 +4975,7 @@
     <row r="61" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A61" s="110"/>
       <c r="B61" s="153" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C61" s="165"/>
       <c r="D61" s="160"/>
@@ -5025,7 +5007,7 @@
     <row r="62" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="110"/>
       <c r="B62" s="153" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C62" s="165"/>
       <c r="D62" s="160"/>
@@ -5057,7 +5039,7 @@
     <row r="63" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A63" s="99"/>
       <c r="B63" s="167" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C63" s="154"/>
       <c r="D63" s="160"/>
@@ -5093,7 +5075,7 @@
     <row r="64" spans="1:24" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A64" s="142"/>
       <c r="B64" s="167" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C64" s="170"/>
       <c r="D64" s="160"/>
@@ -7924,7 +7906,7 @@
       <c r="K151" s="225"/>
       <c r="L151" s="61"/>
       <c r="M151" s="61" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N151" s="42">
         <f t="shared" si="7"/>
@@ -11573,7 +11555,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="F262" s="369" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G262" s="369"/>
       <c r="H262" s="370"/>
@@ -11667,7 +11649,7 @@
       <c r="A266" s="294"/>
       <c r="H266" s="318"/>
       <c r="I266" s="319" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="J266" s="320"/>
       <c r="K266" s="320"/>
@@ -11730,7 +11712,7 @@
     <row r="269" spans="1:22" ht="19.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A269" s="294"/>
       <c r="I269" s="337" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J269" s="338"/>
       <c r="K269" s="338"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ENTRADAS  OBRADOR  ENERO 2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ENTRADAS  OBRADOR  ENERO 2023.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
   <si>
     <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>0835 B1</t>
+  </si>
+  <si>
+    <t>CANALES 217</t>
+  </si>
+  <si>
+    <t>CANALES  250</t>
   </si>
 </sst>
 </file>
@@ -1363,7 +1369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="386">
+  <cellXfs count="387">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2357,6 +2363,15 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="47" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2401,12 +2416,6 @@
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="47" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2417,6 +2426,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF66CCFF"/>
     </mruColors>
   </colors>
@@ -2700,16 +2710,19 @@
   <dimension ref="A1:X295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="296" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="296" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="296" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="317" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="296" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="296" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="317" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="297" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="298" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="301" customWidth="1"/>
@@ -2729,49 +2742,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="371" t="s">
+      <c r="A1" s="374" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="371"/>
-      <c r="C1" s="371"/>
-      <c r="D1" s="371"/>
-      <c r="E1" s="371"/>
-      <c r="F1" s="371"/>
-      <c r="G1" s="371"/>
-      <c r="H1" s="371"/>
-      <c r="I1" s="371"/>
-      <c r="J1" s="371"/>
+      <c r="B1" s="374"/>
+      <c r="C1" s="374"/>
+      <c r="D1" s="374"/>
+      <c r="E1" s="374"/>
+      <c r="F1" s="374"/>
+      <c r="G1" s="374"/>
+      <c r="H1" s="374"/>
+      <c r="I1" s="374"/>
+      <c r="J1" s="374"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="372" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="372"/>
+      <c r="S1" s="375" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="375"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="374" t="s">
+      <c r="W1" s="377" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="375"/>
+      <c r="X1" s="378"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="371"/>
-      <c r="B2" s="371"/>
-      <c r="C2" s="371"/>
-      <c r="D2" s="371"/>
-      <c r="E2" s="371"/>
-      <c r="F2" s="371"/>
-      <c r="G2" s="371"/>
-      <c r="H2" s="371"/>
-      <c r="I2" s="371"/>
-      <c r="J2" s="371"/>
+      <c r="A2" s="374"/>
+      <c r="B2" s="374"/>
+      <c r="C2" s="374"/>
+      <c r="D2" s="374"/>
+      <c r="E2" s="374"/>
+      <c r="F2" s="374"/>
+      <c r="G2" s="374"/>
+      <c r="H2" s="374"/>
+      <c r="I2" s="374"/>
+      <c r="J2" s="374"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -2779,8 +2792,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="373"/>
-      <c r="T2" s="373"/>
+      <c r="S2" s="376"/>
+      <c r="T2" s="376"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -2825,10 +2838,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="376" t="s">
+      <c r="O3" s="379" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="377"/>
+      <c r="P3" s="380"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -2873,7 +2886,9 @@
       <c r="G4" s="36">
         <v>44929</v>
       </c>
-      <c r="H4" s="37"/>
+      <c r="H4" s="37">
+        <v>41010</v>
+      </c>
       <c r="I4" s="38">
         <v>20130</v>
       </c>
@@ -2890,8 +2905,12 @@
         <f t="shared" ref="N4:N117" si="1">K4*I4</f>
         <v>1177605</v>
       </c>
-      <c r="O4" s="43"/>
-      <c r="P4" s="44"/>
+      <c r="O4" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" s="44">
+        <v>44944</v>
+      </c>
       <c r="Q4" s="45"/>
       <c r="R4" s="46"/>
       <c r="S4" s="47"/>
@@ -2904,7 +2923,7 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="384" t="s">
+      <c r="A5" s="369" t="s">
         <v>33</v>
       </c>
       <c r="B5" s="54" t="s">
@@ -2932,7 +2951,7 @@
       <c r="I5" s="60">
         <v>22586.2</v>
       </c>
-      <c r="J5" s="385">
+      <c r="J5" s="370">
         <f>I5-F5</f>
         <v>176.20000000000073</v>
       </c>
@@ -2985,7 +3004,9 @@
       <c r="G6" s="58">
         <v>44932</v>
       </c>
-      <c r="H6" s="59"/>
+      <c r="H6" s="59">
+        <v>41052</v>
+      </c>
       <c r="I6" s="60">
         <v>19190</v>
       </c>
@@ -3002,8 +3023,12 @@
         <f>K6*I6</f>
         <v>1122615</v>
       </c>
-      <c r="O6" s="62"/>
-      <c r="P6" s="63"/>
+      <c r="O6" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" s="63">
+        <v>44946</v>
+      </c>
       <c r="Q6" s="64"/>
       <c r="R6" s="65"/>
       <c r="S6" s="47"/>
@@ -3034,7 +3059,9 @@
       <c r="G7" s="58">
         <v>44935</v>
       </c>
-      <c r="H7" s="59"/>
+      <c r="H7" s="59">
+        <v>41080</v>
+      </c>
       <c r="I7" s="60">
         <v>17850</v>
       </c>
@@ -3051,8 +3078,12 @@
         <f t="shared" si="1"/>
         <v>1022805</v>
       </c>
-      <c r="O7" s="68"/>
-      <c r="P7" s="63"/>
+      <c r="O7" s="68" t="s">
+        <v>21</v>
+      </c>
+      <c r="P7" s="63">
+        <v>44950</v>
+      </c>
       <c r="Q7" s="64"/>
       <c r="R7" s="65"/>
       <c r="S7" s="47"/>
@@ -3065,7 +3096,7 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="30.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="369" t="s">
         <v>33</v>
       </c>
       <c r="B8" s="54" t="s">
@@ -3083,13 +3114,15 @@
       <c r="G8" s="58">
         <v>44937</v>
       </c>
-      <c r="H8" s="59"/>
+      <c r="H8" s="59">
+        <v>19584</v>
+      </c>
       <c r="I8" s="60">
-        <v>19584</v>
+        <v>21998</v>
       </c>
       <c r="J8" s="39">
         <f t="shared" si="0"/>
-        <v>-2276</v>
+        <v>138</v>
       </c>
       <c r="K8" s="40">
         <v>57.5</v>
@@ -3098,10 +3131,14 @@
       <c r="M8" s="61"/>
       <c r="N8" s="42">
         <f t="shared" si="1"/>
-        <v>1126080</v>
-      </c>
-      <c r="O8" s="69"/>
-      <c r="P8" s="70"/>
+        <v>1264885</v>
+      </c>
+      <c r="O8" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="70">
+        <v>44949</v>
+      </c>
       <c r="Q8" s="64"/>
       <c r="R8" s="65"/>
       <c r="S8" s="47"/>
@@ -3163,28 +3200,40 @@
       </c>
     </row>
     <row r="10" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="71"/>
-      <c r="B10" s="54"/>
+      <c r="A10" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>41</v>
+      </c>
       <c r="C10" s="55"/>
       <c r="D10" s="56"/>
       <c r="E10" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="58"/>
+      <c r="F10" s="57">
+        <v>21560</v>
+      </c>
+      <c r="G10" s="58">
+        <v>44942</v>
+      </c>
       <c r="H10" s="59"/>
-      <c r="I10" s="60"/>
+      <c r="I10" s="60">
+        <v>21560</v>
+      </c>
       <c r="J10" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K10" s="40"/>
+      <c r="K10" s="40">
+        <v>56.4</v>
+      </c>
       <c r="L10" s="61"/>
       <c r="M10" s="61"/>
       <c r="N10" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1215984</v>
       </c>
       <c r="O10" s="72"/>
       <c r="P10" s="70"/>
@@ -3198,28 +3247,40 @@
       <c r="X10" s="52"/>
     </row>
     <row r="11" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="71"/>
-      <c r="B11" s="54"/>
+      <c r="A11" s="371" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="54" t="s">
+        <v>34</v>
+      </c>
       <c r="C11" s="55"/>
       <c r="D11" s="73"/>
       <c r="E11" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="58"/>
+      <c r="F11" s="57">
+        <v>23170</v>
+      </c>
+      <c r="G11" s="58">
+        <v>44944</v>
+      </c>
       <c r="H11" s="59"/>
-      <c r="I11" s="60"/>
+      <c r="I11" s="60">
+        <v>23170</v>
+      </c>
       <c r="J11" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K11" s="40"/>
+      <c r="K11" s="40">
+        <v>57.5</v>
+      </c>
       <c r="L11" s="61"/>
       <c r="M11" s="61"/>
       <c r="N11" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1332275</v>
       </c>
       <c r="O11" s="72"/>
       <c r="P11" s="74"/>
@@ -3235,28 +3296,40 @@
       </c>
     </row>
     <row r="12" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="71"/>
-      <c r="B12" s="54"/>
+      <c r="A12" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>42</v>
+      </c>
       <c r="C12" s="55"/>
       <c r="D12" s="56"/>
       <c r="E12" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="58"/>
+      <c r="F12" s="57">
+        <v>22580</v>
+      </c>
+      <c r="G12" s="58">
+        <v>44946</v>
+      </c>
       <c r="H12" s="59"/>
-      <c r="I12" s="60"/>
+      <c r="I12" s="60">
+        <v>22580</v>
+      </c>
       <c r="J12" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K12" s="40"/>
+      <c r="K12" s="40">
+        <v>55.5</v>
+      </c>
       <c r="L12" s="61"/>
       <c r="M12" s="61"/>
       <c r="N12" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1253190</v>
       </c>
       <c r="O12" s="75"/>
       <c r="P12" s="74"/>
@@ -5891,8 +5964,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="81"/>
-      <c r="L90" s="378"/>
-      <c r="M90" s="379"/>
+      <c r="L90" s="381"/>
+      <c r="M90" s="382"/>
       <c r="N90" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5924,8 +5997,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="81"/>
-      <c r="L91" s="378"/>
-      <c r="M91" s="379"/>
+      <c r="L91" s="381"/>
+      <c r="M91" s="382"/>
       <c r="N91" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6128,8 +6201,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="380"/>
-      <c r="P97" s="382"/>
+      <c r="O97" s="383"/>
+      <c r="P97" s="385"/>
       <c r="Q97" s="158"/>
       <c r="R97" s="125"/>
       <c r="S97" s="176"/>
@@ -6161,8 +6234,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="381"/>
-      <c r="P98" s="383"/>
+      <c r="O98" s="384"/>
+      <c r="P98" s="386"/>
       <c r="Q98" s="158"/>
       <c r="R98" s="125"/>
       <c r="S98" s="176"/>
@@ -11554,14 +11627,14 @@
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="369" t="s">
+      <c r="F262" s="372" t="s">
         <v>27</v>
       </c>
-      <c r="G262" s="369"/>
-      <c r="H262" s="370"/>
+      <c r="G262" s="372"/>
+      <c r="H262" s="373"/>
       <c r="I262" s="303">
         <f>SUM(I4:I261)</f>
-        <v>117430.2</v>
+        <v>187154.2</v>
       </c>
       <c r="J262" s="304"/>
       <c r="K262" s="300"/>
@@ -11660,7 +11733,7 @@
       <c r="M266" s="322"/>
       <c r="N266" s="323">
         <f>SUM(N4:N265)</f>
-        <v>6795661.5999999996</v>
+        <v>10735915.6</v>
       </c>
       <c r="O266" s="324"/>
       <c r="Q266" s="325">
@@ -11720,7 +11793,7 @@
       <c r="M269" s="339"/>
       <c r="N269" s="340">
         <f>V266+S266+Q266+N266+L266</f>
-        <v>6795661.5999999996</v>
+        <v>10735915.6</v>
       </c>
       <c r="O269" s="341"/>
       <c r="R269" s="310"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ENTRADAS  OBRADOR  ENERO 2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ENTRADAS  OBRADOR  ENERO 2023.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
   </si>
@@ -158,6 +158,9 @@
   <si>
     <t>CANALES  250</t>
   </si>
+  <si>
+    <t>MIGUEL HERRERA</t>
+  </si>
 </sst>
 </file>
 
@@ -170,7 +173,7 @@
     <numFmt numFmtId="166" formatCode="[$-C0A]dd\-mmm\-yy;@"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="48" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -551,6 +554,14 @@
       <family val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -1369,7 +1380,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="387">
+  <cellXfs count="392">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2416,6 +2427,21 @@
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="48" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2710,19 +2736,19 @@
   <dimension ref="A1:X295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="O52" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="O9" sqref="O9"/>
+      <selection pane="bottomRight" activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="296" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="296" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="296" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="317" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="296" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="296" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="317" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="297" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="298" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="301" customWidth="1"/>
@@ -4913,8 +4939,10 @@
       <c r="U56" s="49"/>
       <c r="V56" s="50"/>
     </row>
-    <row r="57" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A57" s="152"/>
+    <row r="57" spans="1:24" ht="23.25" x14ac:dyDescent="0.3">
+      <c r="A57" s="152" t="s">
+        <v>43</v>
+      </c>
       <c r="B57" s="153" t="s">
         <v>23</v>
       </c>
@@ -4936,13 +4964,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O57" s="158" t="s">
-        <v>21</v>
-      </c>
-      <c r="P57" s="58">
-        <v>44895</v>
-      </c>
-      <c r="Q57" s="124"/>
+      <c r="O57" s="387"/>
+      <c r="P57" s="388"/>
+      <c r="Q57" s="389"/>
       <c r="R57" s="125"/>
       <c r="S57" s="48"/>
       <c r="T57" s="48"/>
@@ -4950,7 +4974,9 @@
       <c r="V57" s="50"/>
     </row>
     <row r="58" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A58" s="152"/>
+      <c r="A58" s="152" t="s">
+        <v>43</v>
+      </c>
       <c r="B58" s="153" t="s">
         <v>23</v>
       </c>
@@ -4972,9 +4998,9 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O58" s="158"/>
-      <c r="P58" s="58"/>
-      <c r="Q58" s="158"/>
+      <c r="O58" s="390"/>
+      <c r="P58" s="391"/>
+      <c r="Q58" s="390"/>
       <c r="R58" s="125"/>
       <c r="S58" s="48"/>
       <c r="T58" s="48"/>
@@ -5132,12 +5158,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O63" s="169" t="s">
-        <v>21</v>
-      </c>
-      <c r="P63" s="120">
-        <v>44895</v>
-      </c>
+      <c r="O63" s="169"/>
+      <c r="P63" s="120"/>
       <c r="Q63" s="166"/>
       <c r="R63" s="125"/>
       <c r="S63" s="48"/>
@@ -5168,12 +5190,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O64" s="169" t="s">
-        <v>22</v>
-      </c>
-      <c r="P64" s="58">
-        <v>44895</v>
-      </c>
+      <c r="O64" s="169"/>
+      <c r="P64" s="58"/>
       <c r="Q64" s="166"/>
       <c r="R64" s="125"/>
       <c r="S64" s="48"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ENTRADAS  OBRADOR  ENERO 2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ENTRADAS  OBRADOR  ENERO 2023.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
   </si>
@@ -160,6 +160,18 @@
   </si>
   <si>
     <t>MIGUEL HERRERA</t>
+  </si>
+  <si>
+    <t>CANALES   249</t>
+  </si>
+  <si>
+    <t>FOLIO CENTRAL 11260</t>
+  </si>
+  <si>
+    <t>CANALES 249</t>
+  </si>
+  <si>
+    <t>CANALES  219</t>
   </si>
 </sst>
 </file>
@@ -2383,6 +2395,21 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="48" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2427,21 +2454,6 @@
     </xf>
     <xf numFmtId="166" fontId="9" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="48" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2736,19 +2748,19 @@
   <dimension ref="A1:X295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="3" topLeftCell="O52" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A67" sqref="A67"/>
+      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="296" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="296" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="296" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="317" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="296" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="296" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="317" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="297" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="298" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="301" customWidth="1"/>
@@ -2768,49 +2780,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="42.75" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="374" t="s">
+      <c r="A1" s="379" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="374"/>
-      <c r="C1" s="374"/>
-      <c r="D1" s="374"/>
-      <c r="E1" s="374"/>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
-      <c r="H1" s="374"/>
-      <c r="I1" s="374"/>
-      <c r="J1" s="374"/>
+      <c r="B1" s="379"/>
+      <c r="C1" s="379"/>
+      <c r="D1" s="379"/>
+      <c r="E1" s="379"/>
+      <c r="F1" s="379"/>
+      <c r="G1" s="379"/>
+      <c r="H1" s="379"/>
+      <c r="I1" s="379"/>
+      <c r="J1" s="379"/>
       <c r="K1" s="363"/>
       <c r="L1" s="363"/>
       <c r="M1" s="363"/>
       <c r="N1" s="363"/>
       <c r="O1" s="364"/>
-      <c r="S1" s="375" t="s">
-        <v>0</v>
-      </c>
-      <c r="T1" s="375"/>
+      <c r="S1" s="380" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="380"/>
       <c r="U1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="V1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="W1" s="377" t="s">
+      <c r="W1" s="382" t="s">
         <v>3</v>
       </c>
-      <c r="X1" s="378"/>
+      <c r="X1" s="383"/>
     </row>
     <row r="2" spans="1:24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="374"/>
-      <c r="B2" s="374"/>
-      <c r="C2" s="374"/>
-      <c r="D2" s="374"/>
-      <c r="E2" s="374"/>
-      <c r="F2" s="374"/>
-      <c r="G2" s="374"/>
-      <c r="H2" s="374"/>
-      <c r="I2" s="374"/>
-      <c r="J2" s="374"/>
+      <c r="A2" s="379"/>
+      <c r="B2" s="379"/>
+      <c r="C2" s="379"/>
+      <c r="D2" s="379"/>
+      <c r="E2" s="379"/>
+      <c r="F2" s="379"/>
+      <c r="G2" s="379"/>
+      <c r="H2" s="379"/>
+      <c r="I2" s="379"/>
+      <c r="J2" s="379"/>
       <c r="K2" s="365"/>
       <c r="L2" s="365"/>
       <c r="M2" s="365"/>
@@ -2818,8 +2830,8 @@
       <c r="O2" s="367"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="376"/>
-      <c r="T2" s="376"/>
+      <c r="S2" s="381"/>
+      <c r="T2" s="381"/>
       <c r="U2" s="8"/>
       <c r="V2" s="9"/>
       <c r="W2" s="10"/>
@@ -2864,10 +2876,10 @@
       <c r="N3" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="379" t="s">
+      <c r="O3" s="384" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="380"/>
+      <c r="P3" s="385"/>
       <c r="Q3" s="24" t="s">
         <v>17</v>
       </c>
@@ -3195,7 +3207,9 @@
       <c r="G9" s="58">
         <v>44939</v>
       </c>
-      <c r="H9" s="59"/>
+      <c r="H9" s="59">
+        <v>41110</v>
+      </c>
       <c r="I9" s="60">
         <v>18090</v>
       </c>
@@ -3212,8 +3226,12 @@
         <f t="shared" si="1"/>
         <v>1036557</v>
       </c>
-      <c r="O9" s="72"/>
-      <c r="P9" s="70"/>
+      <c r="O9" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="70">
+        <v>44952</v>
+      </c>
       <c r="Q9" s="64"/>
       <c r="R9" s="65"/>
       <c r="S9" s="47"/>
@@ -3244,7 +3262,9 @@
       <c r="G10" s="58">
         <v>44942</v>
       </c>
-      <c r="H10" s="59"/>
+      <c r="H10" s="59">
+        <v>41137</v>
+      </c>
       <c r="I10" s="60">
         <v>21560</v>
       </c>
@@ -3261,8 +3281,12 @@
         <f t="shared" si="1"/>
         <v>1215984</v>
       </c>
-      <c r="O10" s="72"/>
-      <c r="P10" s="70"/>
+      <c r="O10" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="70">
+        <v>44957</v>
+      </c>
       <c r="Q10" s="64"/>
       <c r="R10" s="65"/>
       <c r="S10" s="47"/>
@@ -3291,13 +3315,15 @@
       <c r="G11" s="58">
         <v>44944</v>
       </c>
-      <c r="H11" s="59"/>
+      <c r="H11" s="59">
+        <v>19657</v>
+      </c>
       <c r="I11" s="60">
-        <v>23170</v>
+        <v>23278.799999999999</v>
       </c>
       <c r="J11" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>108.79999999999927</v>
       </c>
       <c r="K11" s="40">
         <v>57.5</v>
@@ -3306,10 +3332,14 @@
       <c r="M11" s="61"/>
       <c r="N11" s="42">
         <f t="shared" si="1"/>
-        <v>1332275</v>
-      </c>
-      <c r="O11" s="72"/>
-      <c r="P11" s="74"/>
+        <v>1338531</v>
+      </c>
+      <c r="O11" s="72" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="74">
+        <v>44957</v>
+      </c>
       <c r="Q11" s="64"/>
       <c r="R11" s="65"/>
       <c r="S11" s="47"/>
@@ -3371,28 +3401,40 @@
       </c>
     </row>
     <row r="13" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="76"/>
-      <c r="B13" s="54"/>
+      <c r="A13" s="76" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>44</v>
+      </c>
       <c r="C13" s="77"/>
       <c r="D13" s="56"/>
       <c r="E13" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F13" s="57"/>
-      <c r="G13" s="58"/>
+      <c r="F13" s="57">
+        <v>22740</v>
+      </c>
+      <c r="G13" s="58">
+        <v>44949</v>
+      </c>
       <c r="H13" s="59"/>
-      <c r="I13" s="60"/>
+      <c r="I13" s="60">
+        <v>22740</v>
+      </c>
       <c r="J13" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K13" s="40"/>
+      <c r="K13" s="40">
+        <v>55.5</v>
+      </c>
       <c r="L13" s="61"/>
       <c r="M13" s="61"/>
       <c r="N13" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1262070</v>
       </c>
       <c r="O13" s="75"/>
       <c r="P13" s="74"/>
@@ -3408,28 +3450,40 @@
       </c>
     </row>
     <row r="14" spans="1:24" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="71"/>
-      <c r="B14" s="54"/>
+      <c r="A14" s="371" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="54" t="s">
+        <v>47</v>
+      </c>
       <c r="C14" s="77"/>
       <c r="D14" s="56"/>
       <c r="E14" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F14" s="57"/>
-      <c r="G14" s="58"/>
+      <c r="F14" s="57">
+        <v>21390</v>
+      </c>
+      <c r="G14" s="58">
+        <v>44951</v>
+      </c>
       <c r="H14" s="59"/>
-      <c r="I14" s="60"/>
+      <c r="I14" s="60">
+        <v>21390</v>
+      </c>
       <c r="J14" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K14" s="40"/>
+      <c r="K14" s="40">
+        <v>56</v>
+      </c>
       <c r="L14" s="61"/>
       <c r="M14" s="61"/>
       <c r="N14" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1197840</v>
       </c>
       <c r="O14" s="72"/>
       <c r="P14" s="74"/>
@@ -3445,28 +3499,40 @@
       </c>
     </row>
     <row r="15" spans="1:24" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="71"/>
-      <c r="B15" s="54"/>
+      <c r="A15" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>46</v>
+      </c>
       <c r="C15" s="78"/>
       <c r="D15" s="56"/>
       <c r="E15" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F15" s="57"/>
-      <c r="G15" s="58"/>
+      <c r="F15" s="57">
+        <v>22580</v>
+      </c>
+      <c r="G15" s="58">
+        <v>44953</v>
+      </c>
       <c r="H15" s="59"/>
-      <c r="I15" s="60"/>
+      <c r="I15" s="60">
+        <v>22580</v>
+      </c>
       <c r="J15" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="40"/>
+      <c r="K15" s="40">
+        <v>54.7</v>
+      </c>
       <c r="L15" s="61"/>
       <c r="M15" s="61"/>
       <c r="N15" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1235126</v>
       </c>
       <c r="O15" s="75"/>
       <c r="P15" s="74"/>
@@ -3482,28 +3548,40 @@
       </c>
     </row>
     <row r="16" spans="1:24" ht="31.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="71"/>
-      <c r="B16" s="54"/>
+      <c r="A16" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="54" t="s">
+        <v>42</v>
+      </c>
       <c r="C16" s="55"/>
       <c r="D16" s="56"/>
       <c r="E16" s="34">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F16" s="57"/>
-      <c r="G16" s="58"/>
+      <c r="F16" s="57">
+        <v>23390</v>
+      </c>
+      <c r="G16" s="58">
+        <v>44956</v>
+      </c>
       <c r="H16" s="59"/>
-      <c r="I16" s="60"/>
+      <c r="I16" s="60">
+        <v>23390</v>
+      </c>
       <c r="J16" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="40"/>
+      <c r="K16" s="40">
+        <v>54.7</v>
+      </c>
       <c r="L16" s="61"/>
       <c r="M16" s="61"/>
       <c r="N16" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1279433</v>
       </c>
       <c r="O16" s="72"/>
       <c r="P16" s="74"/>
@@ -4964,43 +5042,53 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O57" s="387"/>
-      <c r="P57" s="388"/>
-      <c r="Q57" s="389"/>
+      <c r="O57" s="372"/>
+      <c r="P57" s="373"/>
+      <c r="Q57" s="374"/>
       <c r="R57" s="125"/>
       <c r="S57" s="48"/>
       <c r="T57" s="48"/>
       <c r="U57" s="49"/>
       <c r="V57" s="50"/>
     </row>
-    <row r="58" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:24" ht="47.25" x14ac:dyDescent="0.3">
       <c r="A58" s="152" t="s">
         <v>43</v>
       </c>
       <c r="B58" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="159"/>
+      <c r="C58" s="159" t="s">
+        <v>45</v>
+      </c>
       <c r="D58" s="160"/>
       <c r="E58" s="56"/>
-      <c r="F58" s="155"/>
-      <c r="G58" s="156"/>
+      <c r="F58" s="155">
+        <v>2196.5</v>
+      </c>
+      <c r="G58" s="156">
+        <v>44951</v>
+      </c>
       <c r="H58" s="157"/>
-      <c r="I58" s="155"/>
+      <c r="I58" s="155">
+        <v>2174.5</v>
+      </c>
       <c r="J58" s="39">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K58" s="40"/>
+        <v>-22</v>
+      </c>
+      <c r="K58" s="40">
+        <v>96</v>
+      </c>
       <c r="L58" s="61"/>
       <c r="M58" s="61"/>
       <c r="N58" s="42">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O58" s="390"/>
-      <c r="P58" s="391"/>
-      <c r="Q58" s="390"/>
+        <v>208752</v>
+      </c>
+      <c r="O58" s="375"/>
+      <c r="P58" s="376"/>
+      <c r="Q58" s="375"/>
       <c r="R58" s="125"/>
       <c r="S58" s="48"/>
       <c r="T58" s="48"/>
@@ -5982,8 +6070,8 @@
         <v>0</v>
       </c>
       <c r="K90" s="81"/>
-      <c r="L90" s="381"/>
-      <c r="M90" s="382"/>
+      <c r="L90" s="386"/>
+      <c r="M90" s="387"/>
       <c r="N90" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6015,8 +6103,8 @@
         <v>0</v>
       </c>
       <c r="K91" s="81"/>
-      <c r="L91" s="381"/>
-      <c r="M91" s="382"/>
+      <c r="L91" s="386"/>
+      <c r="M91" s="387"/>
       <c r="N91" s="42">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -6219,8 +6307,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O97" s="383"/>
-      <c r="P97" s="385"/>
+      <c r="O97" s="388"/>
+      <c r="P97" s="390"/>
       <c r="Q97" s="158"/>
       <c r="R97" s="125"/>
       <c r="S97" s="176"/>
@@ -6252,8 +6340,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O98" s="384"/>
-      <c r="P98" s="386"/>
+      <c r="O98" s="389"/>
+      <c r="P98" s="391"/>
       <c r="Q98" s="158"/>
       <c r="R98" s="125"/>
       <c r="S98" s="176"/>
@@ -11645,14 +11733,14 @@
         <f t="shared" si="12"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F262" s="372" t="s">
+      <c r="F262" s="377" t="s">
         <v>27</v>
       </c>
-      <c r="G262" s="372"/>
-      <c r="H262" s="373"/>
+      <c r="G262" s="377"/>
+      <c r="H262" s="378"/>
       <c r="I262" s="303">
         <f>SUM(I4:I261)</f>
-        <v>187154.2</v>
+        <v>279537.5</v>
       </c>
       <c r="J262" s="304"/>
       <c r="K262" s="300"/>
@@ -11751,7 +11839,7 @@
       <c r="M266" s="322"/>
       <c r="N266" s="323">
         <f>SUM(N4:N265)</f>
-        <v>10735915.6</v>
+        <v>15925392.6</v>
       </c>
       <c r="O266" s="324"/>
       <c r="Q266" s="325">
@@ -11811,7 +11899,7 @@
       <c r="M269" s="339"/>
       <c r="N269" s="340">
         <f>V266+S266+Q266+N266+L266</f>
-        <v>10735915.6</v>
+        <v>15925392.6</v>
       </c>
       <c r="O269" s="341"/>
       <c r="R269" s="310"/>

--- a/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ENTRADAS  OBRADOR  ENERO 2023.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL   ARCHIVO   2 0 2 3/ENTRADAS  OBRADOR  ENERO 2023.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="52">
   <si>
     <t xml:space="preserve">F L E T E S   NORMA LEDO </t>
   </si>
@@ -172,6 +172,18 @@
   </si>
   <si>
     <t>CANALES  219</t>
+  </si>
+  <si>
+    <t>0854 B1</t>
+  </si>
+  <si>
+    <t>0875 B1</t>
+  </si>
+  <si>
+    <t>0886 B1</t>
+  </si>
+  <si>
+    <t>0903 B1</t>
   </si>
 </sst>
 </file>
@@ -2751,16 +2763,16 @@
       <pane xSplit="8" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K15" sqref="K15"/>
+      <selection pane="bottomRight" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="49.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.5703125" style="296" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="296" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" style="296" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="317" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="296" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="296" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="317" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="297" customWidth="1"/>
     <col min="7" max="7" width="14.140625" style="298" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" style="301" customWidth="1"/>
@@ -3085,11 +3097,15 @@
       <c r="B7" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="56"/>
+      <c r="C7" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="56">
+        <v>60</v>
+      </c>
       <c r="E7" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1071000</v>
       </c>
       <c r="F7" s="57">
         <v>17850</v>
@@ -3140,11 +3156,15 @@
       <c r="B8" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="67"/>
-      <c r="D8" s="56"/>
+      <c r="C8" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="56">
+        <v>60</v>
+      </c>
       <c r="E8" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1311600</v>
       </c>
       <c r="F8" s="57">
         <v>21860</v>
@@ -3195,11 +3215,15 @@
       <c r="B9" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="56"/>
+      <c r="C9" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="56">
+        <v>60</v>
+      </c>
       <c r="E9" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1085400</v>
       </c>
       <c r="F9" s="57">
         <v>18090</v>
@@ -3250,11 +3274,15 @@
       <c r="B10" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="56"/>
+      <c r="C10" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="56">
+        <v>60</v>
+      </c>
       <c r="E10" s="34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1293600</v>
       </c>
       <c r="F10" s="57">
         <v>21560</v>
